--- a/数据整理/stocks/港股/00772-阅文集团.xlsx
+++ b/数据整理/stocks/港股/00772-阅文集团.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="35">
   <si>
     <t>基金代码</t>
   </si>
@@ -22,61 +22,103 @@
     <t>基金名称</t>
   </si>
   <si>
+    <t>基金金额</t>
+  </si>
+  <si>
     <t>股票总仓位</t>
   </si>
   <si>
     <t>仓位占比</t>
   </si>
   <si>
+    <t>持有市值(亿元)</t>
+  </si>
+  <si>
     <t>仓位排名</t>
   </si>
   <si>
+    <t>850588</t>
+  </si>
+  <si>
+    <t>011024</t>
+  </si>
+  <si>
+    <t>009617</t>
+  </si>
+  <si>
     <t>005209</t>
   </si>
   <si>
+    <t>002066</t>
+  </si>
+  <si>
     <t>005210</t>
   </si>
   <si>
-    <t>002066</t>
-  </si>
-  <si>
-    <t>009617</t>
-  </si>
-  <si>
-    <t>011024</t>
-  </si>
-  <si>
-    <t>850588</t>
+    <t>海通核心优势一年持有期混合A</t>
+  </si>
+  <si>
+    <t>东兴兴利债券D</t>
+  </si>
+  <si>
+    <t>东兴兴利债券C</t>
   </si>
   <si>
     <t>东吴双三角股票A</t>
   </si>
   <si>
+    <t>景顺长城景盛双息收益债券C</t>
+  </si>
+  <si>
     <t>东吴双三角股票C</t>
   </si>
   <si>
-    <t>景顺长城景盛双息收益债券C</t>
-  </si>
-  <si>
-    <t>东兴兴利债券C</t>
-  </si>
-  <si>
-    <t>东兴兴利债券D</t>
-  </si>
-  <si>
-    <t>海通核心优势一年持有期混合A</t>
+    <t>32.64</t>
+  </si>
+  <si>
+    <t>1.39</t>
+  </si>
+  <si>
+    <t>0.91</t>
+  </si>
+  <si>
+    <t>0.18</t>
+  </si>
+  <si>
+    <t>0.06</t>
+  </si>
+  <si>
+    <t>0.05</t>
+  </si>
+  <si>
+    <t>89.68</t>
   </si>
   <si>
     <t>89.59</t>
   </si>
   <si>
-    <t>89.68</t>
+    <t>4.10</t>
   </si>
   <si>
     <t>3.30</t>
   </si>
   <si>
-    <t>4.10</t>
+    <t>1.3382</t>
+  </si>
+  <si>
+    <t>0.0459</t>
+  </si>
+  <si>
+    <t>0.0300</t>
+  </si>
+  <si>
+    <t>0.0059</t>
+  </si>
+  <si>
+    <t>0.0020</t>
+  </si>
+  <si>
+    <t>0.0016</t>
   </si>
 </sst>
 </file>
@@ -434,13 +476,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:6">
+    <row r="1" spans="1:8">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -456,125 +498,167 @@
       <c r="F1" s="1" t="s">
         <v>4</v>
       </c>
+      <c r="G1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>6</v>
+      </c>
     </row>
-    <row r="2" spans="1:6">
+    <row r="2" spans="1:8">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D2" t="s">
+        <v>19</v>
+      </c>
+      <c r="E2" t="s">
+        <v>25</v>
+      </c>
+      <c r="F2" t="s">
+        <v>27</v>
+      </c>
+      <c r="G2" t="s">
+        <v>29</v>
+      </c>
+      <c r="H2">
         <v>5</v>
       </c>
-      <c r="C2" t="s">
-        <v>11</v>
-      </c>
-      <c r="D2" t="s">
-        <v>17</v>
-      </c>
-      <c r="E2" t="s">
-        <v>19</v>
-      </c>
-      <c r="F2">
-        <v>9</v>
-      </c>
     </row>
-    <row r="3" spans="1:6">
+    <row r="3" spans="1:8">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C3" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="D3" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="E3" t="s">
-        <v>19</v>
-      </c>
-      <c r="F3">
+        <v>26</v>
+      </c>
+      <c r="F3" t="s">
+        <v>28</v>
+      </c>
+      <c r="G3" t="s">
+        <v>30</v>
+      </c>
+      <c r="H3">
         <v>9</v>
       </c>
     </row>
-    <row r="4" spans="1:6">
+    <row r="4" spans="1:8">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="C4" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="D4" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="E4" t="s">
-        <v>19</v>
-      </c>
-      <c r="F4">
+        <v>26</v>
+      </c>
+      <c r="F4" t="s">
+        <v>28</v>
+      </c>
+      <c r="G4" t="s">
+        <v>31</v>
+      </c>
+      <c r="H4">
         <v>9</v>
       </c>
     </row>
-    <row r="5" spans="1:6">
+    <row r="5" spans="1:8">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="C5" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="D5" t="s">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="E5" t="s">
-        <v>19</v>
-      </c>
-      <c r="F5">
+        <v>26</v>
+      </c>
+      <c r="F5" t="s">
+        <v>28</v>
+      </c>
+      <c r="G5" t="s">
+        <v>32</v>
+      </c>
+      <c r="H5">
         <v>9</v>
       </c>
     </row>
-    <row r="6" spans="1:6">
+    <row r="6" spans="1:8">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6" t="s">
+        <v>11</v>
+      </c>
+      <c r="C6" t="s">
+        <v>17</v>
+      </c>
+      <c r="D6" t="s">
+        <v>23</v>
+      </c>
+      <c r="E6" t="s">
+        <v>26</v>
+      </c>
+      <c r="F6" t="s">
+        <v>28</v>
+      </c>
+      <c r="G6" t="s">
+        <v>33</v>
+      </c>
+      <c r="H6">
         <v>9</v>
       </c>
-      <c r="C6" t="s">
-        <v>15</v>
-      </c>
-      <c r="D6" t="s">
-        <v>17</v>
-      </c>
-      <c r="E6" t="s">
-        <v>19</v>
-      </c>
-      <c r="F6">
-        <v>9</v>
-      </c>
     </row>
-    <row r="7" spans="1:6">
+    <row r="7" spans="1:8">
       <c r="A7" s="1">
         <v>5</v>
       </c>
       <c r="B7" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="C7" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="D7" t="s">
-        <v>18</v>
+        <v>24</v>
       </c>
       <c r="E7" t="s">
-        <v>20</v>
-      </c>
-      <c r="F7">
-        <v>5</v>
+        <v>26</v>
+      </c>
+      <c r="F7" t="s">
+        <v>28</v>
+      </c>
+      <c r="G7" t="s">
+        <v>34</v>
+      </c>
+      <c r="H7">
+        <v>9</v>
       </c>
     </row>
   </sheetData>

--- a/数据整理/stocks/港股/00772-阅文集团.xlsx
+++ b/数据整理/stocks/港股/00772-阅文集团.xlsx
@@ -1,156 +1,51 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
-  <workbookPr defaultThemeVersion="124226"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <workbookPr/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="2021-Q1" sheetId="1" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
+  <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
-<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="35">
-  <si>
-    <t>基金代码</t>
-  </si>
-  <si>
-    <t>基金名称</t>
-  </si>
-  <si>
-    <t>基金金额</t>
-  </si>
-  <si>
-    <t>股票总仓位</t>
-  </si>
-  <si>
-    <t>仓位占比</t>
-  </si>
-  <si>
-    <t>持有市值(亿元)</t>
-  </si>
-  <si>
-    <t>仓位排名</t>
-  </si>
-  <si>
-    <t>850588</t>
-  </si>
-  <si>
-    <t>011024</t>
-  </si>
-  <si>
-    <t>009617</t>
-  </si>
-  <si>
-    <t>005209</t>
-  </si>
-  <si>
-    <t>002066</t>
-  </si>
-  <si>
-    <t>005210</t>
-  </si>
-  <si>
-    <t>海通核心优势一年持有期混合A</t>
-  </si>
-  <si>
-    <t>东兴兴利债券D</t>
-  </si>
-  <si>
-    <t>东兴兴利债券C</t>
-  </si>
-  <si>
-    <t>东吴双三角股票A</t>
-  </si>
-  <si>
-    <t>景顺长城景盛双息收益债券C</t>
-  </si>
-  <si>
-    <t>东吴双三角股票C</t>
-  </si>
-  <si>
-    <t>32.64</t>
-  </si>
-  <si>
-    <t>1.39</t>
-  </si>
-  <si>
-    <t>0.91</t>
-  </si>
-  <si>
-    <t>0.18</t>
-  </si>
-  <si>
-    <t>0.06</t>
-  </si>
-  <si>
-    <t>0.05</t>
-  </si>
-  <si>
-    <t>89.68</t>
-  </si>
-  <si>
-    <t>89.59</t>
-  </si>
-  <si>
-    <t>4.10</t>
-  </si>
-  <si>
-    <t>3.30</t>
-  </si>
-  <si>
-    <t>1.3382</t>
-  </si>
-  <si>
-    <t>0.0459</t>
-  </si>
-  <si>
-    <t>0.0300</t>
-  </si>
-  <si>
-    <t>0.0059</t>
-  </si>
-  <si>
-    <t>0.0020</t>
-  </si>
-  <si>
-    <t>0.0016</t>
-  </si>
-</sst>
-</file>
-
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="2">
+  <numFmts count="0"/>
+  <fonts count="3">
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <color theme="1"/>
+      <sz val="11"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <b val="1"/>
+      <color theme="1"/>
+      <sz val="11"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <b val="1"/>
     </font>
   </fonts>
   <fills count="2">
     <fill>
-      <patternFill patternType="none"/>
+      <patternFill/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -173,21 +68,97 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+  <cellXfs count="3">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -475,193 +446,455 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
   <dimension ref="A1:H7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:8">
-      <c r="B1" s="1" t="s">
+    <row r="1">
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="1" t="n">
         <v>0</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>850588</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>海通核心优势一年持有期混合A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>32.64</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>89.68</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>4.10</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>1.3382</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>011024</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>东兴兴利债券D</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>1.39</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>89.59</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>3.30</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.0459</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="n">
         <v>2</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>009617</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>东兴兴利债券C</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>0.91</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>89.59</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>3.30</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.0300</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
         <v>3</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>005209</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>东吴双三角股票A</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>0.18</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>89.59</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>3.30</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.0059</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
         <v>4</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>002066</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>景顺长城景盛双息收益债券C</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>0.06</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>89.59</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>3.30</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.0020</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
         <v>5</v>
       </c>
-      <c r="H1" s="1" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="2" spans="1:8">
-      <c r="A2" s="1">
-        <v>0</v>
-      </c>
-      <c r="B2" t="s">
-        <v>7</v>
-      </c>
-      <c r="C2" t="s">
-        <v>13</v>
-      </c>
-      <c r="D2" t="s">
-        <v>19</v>
-      </c>
-      <c r="E2" t="s">
-        <v>25</v>
-      </c>
-      <c r="F2" t="s">
-        <v>27</v>
-      </c>
-      <c r="G2" t="s">
-        <v>29</v>
-      </c>
-      <c r="H2">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8">
-      <c r="A3" s="1">
-        <v>1</v>
-      </c>
-      <c r="B3" t="s">
-        <v>8</v>
-      </c>
-      <c r="C3" t="s">
-        <v>14</v>
-      </c>
-      <c r="D3" t="s">
-        <v>20</v>
-      </c>
-      <c r="E3" t="s">
-        <v>26</v>
-      </c>
-      <c r="F3" t="s">
-        <v>28</v>
-      </c>
-      <c r="G3" t="s">
-        <v>30</v>
-      </c>
-      <c r="H3">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8">
-      <c r="A4" s="1">
-        <v>2</v>
-      </c>
-      <c r="B4" t="s">
-        <v>9</v>
-      </c>
-      <c r="C4" t="s">
-        <v>15</v>
-      </c>
-      <c r="D4" t="s">
-        <v>21</v>
-      </c>
-      <c r="E4" t="s">
-        <v>26</v>
-      </c>
-      <c r="F4" t="s">
-        <v>28</v>
-      </c>
-      <c r="G4" t="s">
-        <v>31</v>
-      </c>
-      <c r="H4">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8">
-      <c r="A5" s="1">
-        <v>3</v>
-      </c>
-      <c r="B5" t="s">
-        <v>10</v>
-      </c>
-      <c r="C5" t="s">
-        <v>16</v>
-      </c>
-      <c r="D5" t="s">
-        <v>22</v>
-      </c>
-      <c r="E5" t="s">
-        <v>26</v>
-      </c>
-      <c r="F5" t="s">
-        <v>28</v>
-      </c>
-      <c r="G5" t="s">
-        <v>32</v>
-      </c>
-      <c r="H5">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8">
-      <c r="A6" s="1">
-        <v>4</v>
-      </c>
-      <c r="B6" t="s">
-        <v>11</v>
-      </c>
-      <c r="C6" t="s">
-        <v>17</v>
-      </c>
-      <c r="D6" t="s">
-        <v>23</v>
-      </c>
-      <c r="E6" t="s">
-        <v>26</v>
-      </c>
-      <c r="F6" t="s">
-        <v>28</v>
-      </c>
-      <c r="G6" t="s">
-        <v>33</v>
-      </c>
-      <c r="H6">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8">
-      <c r="A7" s="1">
-        <v>5</v>
-      </c>
-      <c r="B7" t="s">
-        <v>12</v>
-      </c>
-      <c r="C7" t="s">
-        <v>18</v>
-      </c>
-      <c r="D7" t="s">
-        <v>24</v>
-      </c>
-      <c r="E7" t="s">
-        <v>26</v>
-      </c>
-      <c r="F7" t="s">
-        <v>28</v>
-      </c>
-      <c r="G7" t="s">
-        <v>34</v>
-      </c>
-      <c r="H7">
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>005210</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>东吴双三角股票C</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>0.05</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>89.59</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>3.30</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.0016</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
         <v>9</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>850588</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>海通核心优势一年持有期混合A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>17.02</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>93.38</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>8.69</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>1.4790</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>850005</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>海通核心优势一年持有期混合B</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>0.80</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>93.38</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>8.69</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.0695</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>850599</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>海通核心优势一年持有期混合C</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>0.71</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>93.38</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>8.69</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.0617</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>3</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/数据整理/stocks/港股/00772-阅文集团.xlsx
+++ b/数据整理/stocks/港股/00772-阅文集团.xlsx
@@ -8,6 +8,7 @@
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="1" state="visible" r:id="rId1"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="3" state="visible" r:id="rId3"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -897,4 +898,212 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>002332</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>汇丰晋信沪港深股票A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>9.84</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>92.16</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>5.02</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.4940</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>007291</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>汇丰晋信港股通双核策略混合</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>7.86</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>92.99</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>5.33</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.4189</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>005228</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>汇添富港股通专注成长混合</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>8.75</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>83.85</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>3.56</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.3115</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>002333</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>汇丰晋信沪港深股票C</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>0.74</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>92.16</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>5.02</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.0371</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>3</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/数据整理/stocks/港股/00772-阅文集团.xlsx
+++ b/数据整理/stocks/港股/00772-阅文集团.xlsx
@@ -9,6 +9,7 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="1" state="visible" r:id="rId1"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="4" state="visible" r:id="rId4"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -1106,4 +1107,88 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>4</v>
+      </c>
+      <c r="D2" t="n">
+        <v>1.26</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>3</v>
+      </c>
+      <c r="D3" t="n">
+        <v>1.61</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>6</v>
+      </c>
+      <c r="D4" t="n">
+        <v>1.42</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/数据整理/stocks/港股/00772-阅文集团.xlsx
+++ b/数据整理/stocks/港股/00772-阅文集团.xlsx
@@ -9,7 +9,8 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="1" state="visible" r:id="rId1"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="5" state="visible" r:id="rId5"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -1115,7 +1116,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D4"/>
+  <dimension ref="A1:H8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1126,17 +1127,37 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>日期</t>
+          <t>基金代码</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量</t>
+          <t>基金名称</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
-          <t>持有市值</t>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -1146,14 +1167,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>4</v>
-      </c>
-      <c r="D2" t="n">
-        <v>1.26</v>
+          <t>007291</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>汇丰晋信港股通双核策略混合</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>7.86</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>93.75</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>3.23</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.2539</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="3">
@@ -1162,14 +1205,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>3</v>
-      </c>
-      <c r="D3" t="n">
-        <v>1.61</v>
+          <t>011651</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>招商港股通核心精选股票A</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>4.60</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>84.16</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>3.43</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.1578</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>9</v>
       </c>
     </row>
     <row r="4">
@@ -1178,13 +1243,287 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
+          <t>004266</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>招商沪港深科技创新主题精选灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>2.00</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>78.88</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>3.43</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.0686</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>159792</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>富国中证港股通互联网ETF</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>2.46</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>98.98</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>2.51</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.0617</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>011652</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>招商港股通核心精选股票C</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>1.12</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>84.16</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>3.43</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.0384</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>010754</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>招商沪港深科技创新主题精选灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>0.29</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>78.88</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>3.43</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.0099</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>001900</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>诺安精选价值混合</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>0.17</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>92.19</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>2.58</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.0044</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>7</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2021-Q4</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>7</v>
+      </c>
+      <c r="D2" t="n">
+        <v>0.59</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>4</v>
+      </c>
+      <c r="D3" t="n">
+        <v>1.26</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>3</v>
+      </c>
+      <c r="D4" t="n">
+        <v>1.61</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
           <t>2021-Q1</t>
         </is>
       </c>
-      <c r="C4" t="n">
+      <c r="C5" t="n">
         <v>6</v>
       </c>
-      <c r="D4" t="n">
+      <c r="D5" t="n">
         <v>1.42</v>
       </c>
     </row>

--- a/数据整理/stocks/港股/00772-阅文集团.xlsx
+++ b/数据整理/stocks/港股/00772-阅文集团.xlsx
@@ -10,7 +10,8 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="3" state="visible" r:id="rId3"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="6" state="visible" r:id="rId6"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -1438,7 +1439,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D5"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1449,17 +1450,37 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>日期</t>
+          <t>基金代码</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量(只)</t>
+          <t>基金名称</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
           <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -1469,14 +1490,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>7</v>
-      </c>
-      <c r="D2" t="n">
-        <v>0.59</v>
+          <t>014591</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>广发瑞誉一年持有期混合A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>38.60</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>93.40</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>6.15</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>2.3739</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="3">
@@ -1485,14 +1528,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>4</v>
-      </c>
-      <c r="D3" t="n">
-        <v>1.26</v>
+          <t>007291</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>汇丰晋信港股通双核策略混合</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>7.80</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>92.66</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>7.76</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.6053</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="4">
@@ -1501,14 +1566,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
+          <t>002332</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>汇丰晋信沪港深股票A</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>7.90</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>92.60</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>6.22</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.4914</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
         <v>3</v>
-      </c>
-      <c r="D4" t="n">
-        <v>1.61</v>
       </c>
     </row>
     <row r="5">
@@ -1517,13 +1604,189 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
+          <t>014592</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>广发瑞誉一年持有期混合C</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>4.08</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>93.40</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>6.15</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.2509</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>002333</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>汇丰晋信沪港深股票C</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>1.23</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>92.60</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>6.22</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.0765</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>3</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2022-Q1</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>5</v>
+      </c>
+      <c r="D2" t="n">
+        <v>3.8</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2021-Q4</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>7</v>
+      </c>
+      <c r="D3" t="n">
+        <v>0.59</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>4</v>
+      </c>
+      <c r="D4" t="n">
+        <v>1.26</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>3</v>
+      </c>
+      <c r="D5" t="n">
+        <v>1.61</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
           <t>2021-Q1</t>
         </is>
       </c>
-      <c r="C5" t="n">
+      <c r="C6" t="n">
         <v>6</v>
       </c>
-      <c r="D5" t="n">
+      <c r="D6" t="n">
         <v>1.42</v>
       </c>
     </row>

--- a/数据整理/stocks/港股/00772-阅文集团.xlsx
+++ b/数据整理/stocks/港股/00772-阅文集团.xlsx
@@ -11,7 +11,8 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="3" state="visible" r:id="rId3"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="4" state="visible" r:id="rId4"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="7" state="visible" r:id="rId7"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -1685,7 +1686,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D6"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1696,17 +1697,37 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>日期</t>
+          <t>基金代码</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量(只)</t>
+          <t>基金名称</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
           <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -1716,14 +1737,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q1</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>5</v>
-      </c>
-      <c r="D2" t="n">
-        <v>3.8</v>
+          <t>014591</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>广发瑞誉一年持有期混合A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>37.60</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>89.82</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>6.91</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>2.5982</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="3">
@@ -1732,14 +1775,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>7</v>
-      </c>
-      <c r="D3" t="n">
-        <v>0.59</v>
+          <t>014592</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>广发瑞誉一年持有期混合C</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>4.45</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>89.82</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>6.91</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.3075</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="4">
@@ -1748,14 +1813,120 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
+          <t>004321</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>前海开源沪港深强国产业灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>0.06</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>48.46</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>2.76</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.0017</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>5</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2022-Q2</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>3</v>
+      </c>
+      <c r="D2" t="n">
+        <v>2.91</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2022-Q1</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>5</v>
+      </c>
+      <c r="D3" t="n">
+        <v>3.8</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q4</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="D4" t="n">
-        <v>1.26</v>
+        <v>0.59</v>
       </c>
     </row>
     <row r="5">
@@ -1764,14 +1935,14 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
+          <t>2021-Q3</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D5" t="n">
-        <v>1.61</v>
+        <v>1.26</v>
       </c>
     </row>
     <row r="6">
@@ -1780,13 +1951,29 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C6" t="n">
+        <v>3</v>
+      </c>
+      <c r="D6" t="n">
+        <v>1.61</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
           <t>2021-Q1</t>
         </is>
       </c>
-      <c r="C6" t="n">
+      <c r="C7" t="n">
         <v>6</v>
       </c>
-      <c r="D6" t="n">
+      <c r="D7" t="n">
         <v>1.42</v>
       </c>
     </row>

--- a/数据整理/stocks/港股/00772-阅文集团.xlsx
+++ b/数据整理/stocks/港股/00772-阅文集团.xlsx
@@ -6,13 +6,13 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="3" state="visible" r:id="rId3"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="7" state="visible" r:id="rId7"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -456,281 +456,129 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H7"/>
+  <dimension ref="A1:D7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>基金代码</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>基金名称</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>基金金额</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>股票总仓位</t>
-        </is>
-      </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
-          <t>仓位占比</t>
-        </is>
-      </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
         <is>
           <t>持有市值(亿元)</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
-        <is>
-          <t>仓位排名</t>
-        </is>
-      </c>
     </row>
     <row r="2">
-      <c r="A2" s="1" t="n">
+      <c r="A2" s="2" t="n">
         <v>0</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>850588</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>海通核心优势一年持有期混合A</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>32.64</t>
-        </is>
-      </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>89.68</t>
-        </is>
-      </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>4.10</t>
-        </is>
-      </c>
-      <c r="G2" t="inlineStr">
-        <is>
-          <t>1.3382</t>
-        </is>
-      </c>
-      <c r="H2" t="n">
+          <t>2022-Q2</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>3</v>
+      </c>
+      <c r="D2" t="n">
+        <v>2.91</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2022-Q1</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
         <v>5</v>
       </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>011024</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>东兴兴利债券D</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>1.39</t>
-        </is>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>89.59</t>
-        </is>
-      </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>3.30</t>
-        </is>
-      </c>
-      <c r="G3" t="inlineStr">
-        <is>
-          <t>0.0459</t>
-        </is>
-      </c>
-      <c r="H3" t="n">
-        <v>9</v>
+      <c r="D3" t="n">
+        <v>3.8</v>
       </c>
     </row>
     <row r="4">
-      <c r="A4" s="1" t="n">
+      <c r="A4" s="2" t="n">
         <v>2</v>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>009617</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>东兴兴利债券C</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>0.91</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>89.59</t>
-        </is>
-      </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>3.30</t>
-        </is>
-      </c>
-      <c r="G4" t="inlineStr">
-        <is>
-          <t>0.0300</t>
-        </is>
-      </c>
-      <c r="H4" t="n">
-        <v>9</v>
+          <t>2021-Q4</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>7</v>
+      </c>
+      <c r="D4" t="n">
+        <v>0.59</v>
       </c>
     </row>
     <row r="5">
-      <c r="A5" s="1" t="n">
+      <c r="A5" s="2" t="n">
         <v>3</v>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>005209</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>东吴双三角股票A</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>0.18</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>89.59</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>3.30</t>
-        </is>
-      </c>
-      <c r="G5" t="inlineStr">
-        <is>
-          <t>0.0059</t>
-        </is>
-      </c>
-      <c r="H5" t="n">
-        <v>9</v>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>4</v>
+      </c>
+      <c r="D5" t="n">
+        <v>1.26</v>
       </c>
     </row>
     <row r="6">
-      <c r="A6" s="1" t="n">
+      <c r="A6" s="2" t="n">
         <v>4</v>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>002066</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>景顺长城景盛双息收益债券C</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>0.06</t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>89.59</t>
-        </is>
-      </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>3.30</t>
-        </is>
-      </c>
-      <c r="G6" t="inlineStr">
-        <is>
-          <t>0.0020</t>
-        </is>
-      </c>
-      <c r="H6" t="n">
-        <v>9</v>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C6" t="n">
+        <v>3</v>
+      </c>
+      <c r="D6" t="n">
+        <v>1.61</v>
       </c>
     </row>
     <row r="7">
-      <c r="A7" s="1" t="n">
+      <c r="A7" s="2" t="n">
         <v>5</v>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>005210</t>
-        </is>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>东吴双三角股票C</t>
-        </is>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>0.05</t>
-        </is>
-      </c>
-      <c r="E7" t="inlineStr">
-        <is>
-          <t>89.59</t>
-        </is>
-      </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t>3.30</t>
-        </is>
-      </c>
-      <c r="G7" t="inlineStr">
-        <is>
-          <t>0.0016</t>
-        </is>
-      </c>
-      <c r="H7" t="n">
-        <v>9</v>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C7" t="n">
+        <v>6</v>
+      </c>
+      <c r="D7" t="n">
+        <v>1.42</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
 
@@ -761,7 +609,7 @@
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
-          <t>基金金额</t>
+          <t>基金规模</t>
         </is>
       </c>
       <c r="E1" s="2" t="inlineStr">
@@ -791,36 +639,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>850588</t>
+          <t>014591</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>海通核心优势一年持有期混合A</t>
+          <t>广发瑞誉一年持有期混合A</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>17.02</t>
+          <t>37.60</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>93.38</t>
+          <t>89.82</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>8.69</t>
+          <t>6.91</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>1.4790</t>
+          <t>2.5982</t>
         </is>
       </c>
       <c r="H2" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="3">
@@ -829,36 +677,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>850005</t>
+          <t>014592</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>海通核心优势一年持有期混合B</t>
+          <t>广发瑞誉一年持有期混合C</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>0.80</t>
+          <t>4.45</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>93.38</t>
+          <t>89.82</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>8.69</t>
+          <t>6.91</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>0.0695</t>
+          <t>0.3075</t>
         </is>
       </c>
       <c r="H3" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="4">
@@ -867,36 +715,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>850599</t>
+          <t>004321</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>海通核心优势一年持有期混合C</t>
+          <t>前海开源沪港深强国产业灵活配置混合</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>0.71</t>
+          <t>0.06</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>93.38</t>
+          <t>48.46</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>8.69</t>
+          <t>2.76</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>0.0617</t>
+          <t>0.0017</t>
         </is>
       </c>
       <c r="H4" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
     </row>
   </sheetData>
@@ -910,7 +758,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H5"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -931,7 +779,7 @@
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
-          <t>基金金额</t>
+          <t>基金规模</t>
         </is>
       </c>
       <c r="E1" s="2" t="inlineStr">
@@ -961,32 +809,32 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>002332</t>
+          <t>014591</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>汇丰晋信沪港深股票A</t>
+          <t>广发瑞誉一年持有期混合A</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>9.84</t>
+          <t>38.60</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>92.16</t>
+          <t>93.40</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>5.02</t>
+          <t>6.15</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>0.4940</t>
+          <t>2.3739</t>
         </is>
       </c>
       <c r="H2" t="n">
@@ -1009,26 +857,26 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>7.86</t>
+          <t>7.80</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>92.99</t>
+          <t>92.66</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>5.33</t>
+          <t>7.76</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>0.4189</t>
+          <t>0.6053</t>
         </is>
       </c>
       <c r="H3" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="4">
@@ -1037,36 +885,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>005228</t>
+          <t>002332</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>汇添富港股通专注成长混合</t>
+          <t>汇丰晋信沪港深股票A</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>8.75</t>
+          <t>7.90</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>83.85</t>
+          <t>92.60</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>3.56</t>
+          <t>6.22</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>0.3115</t>
+          <t>0.4914</t>
         </is>
       </c>
       <c r="H4" t="n">
-        <v>10</v>
+        <v>3</v>
       </c>
     </row>
     <row r="5">
@@ -1075,35 +923,73 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
+          <t>014592</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>广发瑞誉一年持有期混合C</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>4.08</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>93.40</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>6.15</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.2509</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
           <t>002333</t>
         </is>
       </c>
-      <c r="C5" t="inlineStr">
+      <c r="C6" t="inlineStr">
         <is>
           <t>汇丰晋信沪港深股票C</t>
         </is>
       </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>0.74</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>92.16</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>5.02</t>
-        </is>
-      </c>
-      <c r="G5" t="inlineStr">
-        <is>
-          <t>0.0371</t>
-        </is>
-      </c>
-      <c r="H5" t="n">
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>1.23</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>92.60</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>6.22</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.0765</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
         <v>3</v>
       </c>
     </row>
@@ -1440,7 +1326,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H6"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1461,7 +1347,7 @@
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
-          <t>基金规模</t>
+          <t>基金金额</t>
         </is>
       </c>
       <c r="E1" s="2" t="inlineStr">
@@ -1491,32 +1377,32 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>014591</t>
+          <t>002332</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>广发瑞誉一年持有期混合A</t>
+          <t>汇丰晋信沪港深股票A</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>38.60</t>
+          <t>9.84</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>93.40</t>
+          <t>92.16</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>6.15</t>
+          <t>5.02</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>2.3739</t>
+          <t>0.4940</t>
         </is>
       </c>
       <c r="H2" t="n">
@@ -1539,26 +1425,26 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>7.80</t>
+          <t>7.86</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>92.66</t>
+          <t>92.99</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>7.76</t>
+          <t>5.33</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>0.6053</t>
+          <t>0.4189</t>
         </is>
       </c>
       <c r="H3" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="4">
@@ -1567,36 +1453,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>002332</t>
+          <t>005228</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>汇丰晋信沪港深股票A</t>
+          <t>汇添富港股通专注成长混合</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>7.90</t>
+          <t>8.75</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>92.60</t>
+          <t>83.85</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>6.22</t>
+          <t>3.56</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>0.4914</t>
+          <t>0.3115</t>
         </is>
       </c>
       <c r="H4" t="n">
-        <v>3</v>
+        <v>10</v>
       </c>
     </row>
     <row r="5">
@@ -1605,73 +1491,35 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>014592</t>
+          <t>002333</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>广发瑞誉一年持有期混合C</t>
+          <t>汇丰晋信沪港深股票C</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>4.08</t>
+          <t>0.74</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>93.40</t>
+          <t>92.16</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>6.15</t>
+          <t>5.02</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>0.2509</t>
+          <t>0.0371</t>
         </is>
       </c>
       <c r="H5" t="n">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="2" t="n">
-        <v>4</v>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>002333</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>汇丰晋信沪港深股票C</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>1.23</t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>92.60</t>
-        </is>
-      </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>6.22</t>
-        </is>
-      </c>
-      <c r="G6" t="inlineStr">
-        <is>
-          <t>0.0765</t>
-        </is>
-      </c>
-      <c r="H6" t="n">
         <v>3</v>
       </c>
     </row>
@@ -1707,7 +1555,7 @@
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
-          <t>基金规模</t>
+          <t>基金金额</t>
         </is>
       </c>
       <c r="E1" s="2" t="inlineStr">
@@ -1737,36 +1585,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>014591</t>
+          <t>850588</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>广发瑞誉一年持有期混合A</t>
+          <t>海通核心优势一年持有期混合A</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>37.60</t>
+          <t>17.02</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>89.82</t>
+          <t>93.38</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>6.91</t>
+          <t>8.69</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>2.5982</t>
+          <t>1.4790</t>
         </is>
       </c>
       <c r="H2" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="3">
@@ -1775,36 +1623,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>014592</t>
+          <t>850005</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>广发瑞誉一年持有期混合C</t>
+          <t>海通核心优势一年持有期混合B</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>4.45</t>
+          <t>0.80</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>89.82</t>
+          <t>93.38</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>6.91</t>
+          <t>8.69</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>0.3075</t>
+          <t>0.0695</t>
         </is>
       </c>
       <c r="H3" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="4">
@@ -1813,36 +1661,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>004321</t>
+          <t>850599</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>前海开源沪港深强国产业灵活配置混合</t>
+          <t>海通核心优势一年持有期混合C</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>0.06</t>
+          <t>0.71</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>48.46</t>
+          <t>93.38</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>2.76</t>
+          <t>8.69</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>0.0017</t>
+          <t>0.0617</t>
         </is>
       </c>
       <c r="H4" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
     </row>
   </sheetData>
@@ -1856,128 +1704,280 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D7"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
-      <c r="B1" s="2" t="inlineStr">
-        <is>
-          <t>日期</t>
-        </is>
-      </c>
-      <c r="C1" s="2" t="inlineStr">
-        <is>
-          <t>持有数量(只)</t>
-        </is>
-      </c>
-      <c r="D1" s="2" t="inlineStr">
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
         <is>
           <t>持有市值(亿元)</t>
         </is>
       </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
     </row>
     <row r="2">
-      <c r="A2" s="2" t="n">
+      <c r="A2" s="1" t="n">
         <v>0</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q2</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
+          <t>850588</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>海通核心优势一年持有期混合A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>32.64</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>89.68</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>4.10</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>1.3382</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>011024</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>东兴兴利债券D</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>1.39</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>89.59</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>3.30</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.0459</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>009617</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>东兴兴利债券C</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>0.91</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>89.59</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>3.30</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.0300</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
         <v>3</v>
       </c>
-      <c r="D2" t="n">
-        <v>2.91</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>2022-Q1</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>005209</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>东吴双三角股票A</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>0.18</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>89.59</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>3.30</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.0059</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>002066</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>景顺长城景盛双息收益债券C</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>0.06</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>89.59</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>3.30</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.0020</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
         <v>5</v>
       </c>
-      <c r="D3" t="n">
-        <v>3.8</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="2" t="n">
-        <v>2</v>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>2021-Q4</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>7</v>
-      </c>
-      <c r="D4" t="n">
-        <v>0.59</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="2" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>2021-Q3</t>
-        </is>
-      </c>
-      <c r="C5" t="n">
-        <v>4</v>
-      </c>
-      <c r="D5" t="n">
-        <v>1.26</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="2" t="n">
-        <v>4</v>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>2021-Q2</t>
-        </is>
-      </c>
-      <c r="C6" t="n">
-        <v>3</v>
-      </c>
-      <c r="D6" t="n">
-        <v>1.61</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="2" t="n">
-        <v>5</v>
-      </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
-        </is>
-      </c>
-      <c r="C7" t="n">
-        <v>6</v>
-      </c>
-      <c r="D7" t="n">
-        <v>1.42</v>
+          <t>005210</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>东吴双三角股票C</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>0.05</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>89.59</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>3.30</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.0016</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>9</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/数据整理/stocks/港股/00772-阅文集团.xlsx
+++ b/数据整理/stocks/港股/00772-阅文集团.xlsx
@@ -7,12 +7,13 @@
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q3" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="8" state="visible" r:id="rId8"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -456,7 +457,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D7"/>
+  <dimension ref="A1:D8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -487,14 +488,14 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q2</t>
+          <t>2022-Q3</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D2" t="n">
-        <v>2.91</v>
+        <v>2.54</v>
       </c>
     </row>
     <row r="3">
@@ -503,14 +504,14 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2022-Q1</t>
+          <t>2022-Q2</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D3" t="n">
-        <v>3.8</v>
+        <v>2.91</v>
       </c>
     </row>
     <row r="4">
@@ -519,14 +520,14 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
+          <t>2022-Q1</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="D4" t="n">
-        <v>0.59</v>
+        <v>3.8</v>
       </c>
     </row>
     <row r="5">
@@ -535,14 +536,14 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
+          <t>2021-Q4</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="D5" t="n">
-        <v>1.26</v>
+        <v>0.59</v>
       </c>
     </row>
     <row r="6">
@@ -551,14 +552,14 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
+          <t>2021-Q3</t>
         </is>
       </c>
       <c r="C6" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D6" t="n">
-        <v>1.61</v>
+        <v>1.26</v>
       </c>
     </row>
     <row r="7">
@@ -567,13 +568,29 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C7" t="n">
+        <v>3</v>
+      </c>
+      <c r="D7" t="n">
+        <v>1.61</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
           <t>2021-Q1</t>
         </is>
       </c>
-      <c r="C7" t="n">
+      <c r="C8" t="n">
         <v>6</v>
       </c>
-      <c r="D7" t="n">
+      <c r="D8" t="n">
         <v>1.42</v>
       </c>
     </row>
@@ -583,6 +600,214 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>014591</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>广发瑞誉一年持有期混合A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>33.18</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>93.83</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>6.53</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>2.1667</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>014592</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>广发瑞誉一年持有期混合C</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>3.92</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>93.83</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>6.53</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.2560</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>014317</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>广发价值领航一年持有混合A</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>2.11</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>91.65</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>4.39</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.0926</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>014318</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>广发价值领航一年持有混合C</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>0.58</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>91.65</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>4.39</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.0255</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>10</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -752,7 +977,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -998,7 +1223,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1320,7 +1545,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1528,7 +1753,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1698,7 +1923,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>

--- a/数据整理/stocks/港股/00772-阅文集团.xlsx
+++ b/数据整理/stocks/港股/00772-阅文集团.xlsx
@@ -7,13 +7,14 @@
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q3" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="7" state="visible" r:id="rId7"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q4" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q3" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="9" state="visible" r:id="rId9"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -457,7 +458,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D8"/>
+  <dimension ref="A1:D9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -488,14 +489,14 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q3</t>
+          <t>2022-Q4</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>4</v>
+        <v>15</v>
       </c>
       <c r="D2" t="n">
-        <v>2.54</v>
+        <v>4.08</v>
       </c>
     </row>
     <row r="3">
@@ -504,14 +505,14 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2022-Q2</t>
+          <t>2022-Q3</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D3" t="n">
-        <v>2.91</v>
+        <v>2.54</v>
       </c>
     </row>
     <row r="4">
@@ -520,14 +521,14 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2022-Q1</t>
+          <t>2022-Q2</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D4" t="n">
-        <v>3.8</v>
+        <v>2.91</v>
       </c>
     </row>
     <row r="5">
@@ -536,14 +537,14 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
+          <t>2022-Q1</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="D5" t="n">
-        <v>0.59</v>
+        <v>3.8</v>
       </c>
     </row>
     <row r="6">
@@ -552,14 +553,14 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
+          <t>2021-Q4</t>
         </is>
       </c>
       <c r="C6" t="n">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="D6" t="n">
-        <v>1.26</v>
+        <v>0.59</v>
       </c>
     </row>
     <row r="7">
@@ -568,14 +569,14 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
+          <t>2021-Q3</t>
         </is>
       </c>
       <c r="C7" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D7" t="n">
-        <v>1.61</v>
+        <v>1.26</v>
       </c>
     </row>
     <row r="8">
@@ -584,13 +585,29 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C8" t="n">
+        <v>3</v>
+      </c>
+      <c r="D8" t="n">
+        <v>1.61</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
           <t>2021-Q1</t>
         </is>
       </c>
-      <c r="C8" t="n">
+      <c r="C9" t="n">
         <v>6</v>
       </c>
-      <c r="D8" t="n">
+      <c r="D9" t="n">
         <v>1.42</v>
       </c>
     </row>
@@ -600,6 +617,630 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H16"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>014591</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>广发瑞誉一年持有期混合A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>35.89</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>92.43</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>8.11</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>2.9107</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>014592</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>广发瑞誉一年持有期混合C</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>4.26</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>92.43</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>8.11</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.3455</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>014317</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>广发价值领航一年持有混合A</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>2.40</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>93.40</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>7.34</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.1762</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>671010</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>西部利得策略优选混合A</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>1.88</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>92.90</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>8.79</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.1653</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>002666</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>前海开源沪港深创新成长灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>4.54</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>67.11</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>2.46</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.1117</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>015412</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>西部利得数字产业混合A</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>0.94</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>92.30</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>9.37</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.0881</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>002667</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>前海开源沪港深创新成长灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>2.14</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>67.11</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>2.46</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.0526</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>014318</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>广发价值领航一年持有混合C</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>0.65</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>93.40</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>7.34</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.0477</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>011060</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>西部利得策略优选混合C</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>0.48</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>92.90</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>8.79</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.0422</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>015413</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>西部利得数字产业混合C</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>0.43</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>92.30</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>9.37</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.0403</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>006477</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>中邮沪港深精选混合</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>0.67</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>94.24</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>4.99</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.0334</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>006537</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>恒生前海港股通精选混合</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>1.10</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>91.14</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>2.72</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.0299</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>001662</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>创金沪港深精选混合</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>0.67</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>93.27</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>2.82</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.0189</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>005493</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>鑫元价值精选灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>0.57</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>86.30</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>2.54</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.0145</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>005494</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>鑫元价值精选灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>86.30</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>2.54</t>
+        </is>
+      </c>
+      <c r="G16" t="n">
+        <v>0</v>
+      </c>
+      <c r="H16" t="n">
+        <v>9</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -807,7 +1448,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -977,7 +1618,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1223,7 +1864,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1545,7 +2186,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1753,7 +2394,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1923,7 +2564,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
